--- a/myaddons/cj_purchase/static/template/采购明细模板.xlsx
+++ b/myaddons/cj_purchase/static/template/采购明细模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>商品编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,14 +31,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购单价</t>
+    <t>采购单价（含税）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率（%）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>填写要求：
 1、物料编码、采购数量、采购单价必须填写
 2、采购数量，价格必须是数字，且须大于0
-3、不可以改变表格格式</t>
+3、单价为含税单价，税率填数字，如：13
+4、不可以改变表格格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,21 +117,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -145,17 +141,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -465,7 +455,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -480,24 +470,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
+      <c r="A2" s="9" t="s">
+        <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
@@ -514,7 +504,9 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
@@ -523,7 +515,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -532,7 +524,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -541,7 +533,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
@@ -550,7 +542,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
@@ -559,7 +551,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
@@ -568,7 +560,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
@@ -577,7 +569,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
@@ -586,7 +578,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
@@ -595,7 +587,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
@@ -604,7 +596,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
@@ -613,7 +605,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
@@ -622,7 +614,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
@@ -631,7 +623,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
@@ -640,7 +632,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
@@ -649,7 +641,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
@@ -658,7 +650,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
@@ -667,7 +659,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
@@ -676,8 +668,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
